--- a/foundPath/3000pathNodes.xlsx
+++ b/foundPath/3000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -112,408 +112,408 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B3" s="0">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C3" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0">
-        <v>3.7267799624996498</v>
+        <v>2.2222222222222219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B4" s="0">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="C4" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0">
-        <v>7.5285065439360377</v>
+        <v>3.27485380116959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="B5" s="0">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="C5" s="0">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0">
-        <v>10.964427898617419</v>
+        <v>4.7563352826510723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="B6" s="0">
-        <v>860</v>
+        <v>700</v>
       </c>
       <c r="C6" s="0">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0">
-        <v>13.420568249494609</v>
+        <v>6.4230019493177393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B7" s="0">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="C7" s="0">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0">
-        <v>14.77240615953319</v>
+        <v>8.6452241715399616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="B8" s="0">
-        <v>980</v>
+        <v>830</v>
       </c>
       <c r="C8" s="0">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0">
-        <v>18.693974786984171</v>
+        <v>11.403844861195131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="B9" s="0">
-        <v>1040</v>
+        <v>900</v>
       </c>
       <c r="C9" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0">
-        <v>21.637281950628239</v>
+        <v>13.698926828408251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="B10" s="0">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0">
-        <v>21.976265001475699</v>
+        <v>17.098273170803441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="B11" s="0">
         <v>1010</v>
       </c>
       <c r="C11" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0">
-        <v>23.949586251298619</v>
+        <v>17.700066176068589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="B12" s="0">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12" s="0">
-        <v>24.663871965584342</v>
+        <v>19.60482808083049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="B13" s="0">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C13" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="0">
-        <v>25.288871965584342</v>
+        <v>22.616521090514659</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="B14" s="0">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="C14" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="0">
-        <v>25.844427521139899</v>
+        <v>23.47362021922563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="B15" s="0">
-        <v>970</v>
+        <v>920</v>
       </c>
       <c r="C15" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" s="0">
-        <v>26.344427521139899</v>
+        <v>26.978949675007609</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="B16" s="0">
-        <v>940</v>
+        <v>880</v>
       </c>
       <c r="C16" s="0">
-        <v>22</v>
+        <v>22.956651822718079</v>
       </c>
       <c r="D16" s="0">
-        <v>27.7397763583492</v>
+        <v>28.734220398271951</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="B17" s="0">
-        <v>910</v>
+        <v>840</v>
       </c>
       <c r="C17" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="0">
-        <v>29.177175294789372</v>
+        <v>31.1960421477389</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="B18" s="0">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="C18" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0">
-        <v>33.034121373988718</v>
+        <v>32.108722954881678</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B19" s="0">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C19" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="0">
-        <v>36.957331781347392</v>
+        <v>34.148330760318792</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="B20" s="0">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="C20" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D20" s="0">
-        <v>38.292721142630349</v>
+        <v>34.556494025624907</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="B21" s="0">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="C21" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0">
-        <v>42.006627906171389</v>
+        <v>37.537917995624632</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="B22" s="0">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="C22" s="0">
-        <v>27.19244065864385</v>
+        <v>24</v>
       </c>
       <c r="D22" s="0">
-        <v>43.074387186543028</v>
+        <v>38.823566688691081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="B23" s="0">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="C23" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="0">
-        <v>43.686701037990701</v>
+        <v>41.90871562544072</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="B24" s="0">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="C24" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D24" s="0">
-        <v>44.777465905063771</v>
+        <v>43.977681142682101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B25" s="0">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="C25" s="0">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="0">
-        <v>45.728984193361548</v>
+        <v>47.145425146878871</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B26" s="0">
         <v>830</v>
       </c>
       <c r="C26" s="0">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0">
-        <v>46.572783430153933</v>
+        <v>49.776093355702152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B27" s="0">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="C27" s="0">
-        <v>24.175467587850591</v>
+        <v>14</v>
       </c>
       <c r="D27" s="0">
-        <v>50.406002551060688</v>
+        <v>50.545324124932918</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B28" s="0">
-        <v>710</v>
+        <v>770</v>
       </c>
       <c r="C28" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D28" s="0">
-        <v>51.187627065410922</v>
+        <v>53.456224020681297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="B29" s="0">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C29" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D29" s="0">
-        <v>52.380939390002773</v>
+        <v>57.37915029699672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="B30" s="0">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="C30" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D30" s="0">
-        <v>56.340797136536217</v>
+        <v>61.15839806812869</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="B31" s="0">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="C31" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31" s="0">
-        <v>58.475459117476753</v>
+        <v>64.326142072325453</v>
       </c>
     </row>
     <row r="32">
@@ -521,405 +521,405 @@
         <v>550</v>
       </c>
       <c r="B32" s="0">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="C32" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D32" s="0">
-        <v>61.036708812449888</v>
+        <v>66.118796692159222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B33" s="0">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="C33" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0">
-        <v>63.524035404446373</v>
+        <v>67.094116390347565</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="B34" s="0">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C34" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="0">
-        <v>65.638448545788762</v>
+        <v>68.336376377847444</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="B35" s="0">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C35" s="0">
-        <v>16.515454772409619</v>
+        <v>24</v>
       </c>
       <c r="D35" s="0">
-        <v>69.052041304441374</v>
+        <v>71.550498110513573</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="B36" s="0">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C36" s="0">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D36" s="0">
-        <v>69.631491876130994</v>
+        <v>73.73231629233176</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="B37" s="0">
         <v>390</v>
       </c>
       <c r="C37" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D37" s="0">
-        <v>73.439378429062941</v>
+        <v>75.224853605764594</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B38" s="0">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="C38" s="0">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D38" s="0">
-        <v>74.308943646454239</v>
+        <v>78.592028754271965</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="B39" s="0">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="C39" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0">
-        <v>76.463009569308042</v>
+        <v>82.318808716771613</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="B40" s="0">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="C40" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D40" s="0">
-        <v>78.21983049162381</v>
+        <v>86.102592500555403</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B41" s="0">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="C41" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D41" s="0">
-        <v>81.991066657952061</v>
+        <v>89.989893763785602</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="B42" s="0">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="C42" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42" s="0">
-        <v>85.111161510277356</v>
+        <v>93.567602527785269</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="B43" s="0">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="C43" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D43" s="0">
-        <v>86.229195499027256</v>
+        <v>97.375489080717216</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="B44" s="0">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="C44" s="0">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D44" s="0">
-        <v>87.014869700345642</v>
+        <v>101.2307786970962</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="B45" s="0">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="C45" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D45" s="0">
-        <v>90.598095366256103</v>
+        <v>105.18181045782509</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>360</v>
+        <v>770</v>
       </c>
       <c r="B46" s="0">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="C46" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D46" s="0">
-        <v>91.006258631562233</v>
+        <v>109.10617338059809</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>440</v>
+        <v>830</v>
       </c>
       <c r="B47" s="0">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C47" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D47" s="0">
-        <v>94.167928336777351</v>
+        <v>111.9340567339032</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>510</v>
+        <v>900</v>
       </c>
       <c r="B48" s="0">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C48" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D48" s="0">
-        <v>96.486311225913568</v>
+        <v>115.8162116110058</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>570</v>
+        <v>910</v>
       </c>
       <c r="B49" s="0">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="C49" s="0">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D49" s="0">
-        <v>98.275359028942461</v>
+        <v>118.3035382030023</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="B50" s="0">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="C50" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D50" s="0">
-        <v>101.2494056280692</v>
+        <v>121.99006094863751</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="B51" s="0">
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="C51" s="0">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D51" s="0">
-        <v>104.3502739927994</v>
+        <v>125.9123836514012</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="B52" s="0">
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="C52" s="0">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D52" s="0">
-        <v>107.88936094497249</v>
+        <v>129.2108681518954</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>850</v>
+        <v>930</v>
       </c>
       <c r="B53" s="0">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="C53" s="0">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D53" s="0">
-        <v>108.2992779195734</v>
+        <v>114.58618710302601</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="B54" s="0">
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="C54" s="0">
         <v>29</v>
       </c>
       <c r="D54" s="0">
-        <v>111.0943628914481</v>
+        <v>118.1576156744546</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="B55" s="0">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="C55" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D55" s="0">
-        <v>114.9593643324622</v>
+        <v>121.6069170460963</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="B56" s="0">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="C56" s="0">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D56" s="0">
-        <v>115.60452562278471</v>
+        <v>109.2513716615147</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>890</v>
+        <v>640</v>
       </c>
       <c r="B57" s="0">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="C57" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="0">
-        <v>118.5007980788246</v>
+        <v>112.90209489008571</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>930</v>
+        <v>740</v>
       </c>
       <c r="B58" s="0">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="C58" s="0">
-        <v>25.823756982767168</v>
+        <v>28</v>
       </c>
       <c r="D58" s="0">
-        <v>114.7842765571348</v>
+        <v>116.6791463816359</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="B59" s="0">
-        <v>520</v>
+        <v>210</v>
       </c>
       <c r="C59" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="0">
-        <v>117.4796130438155</v>
+        <v>120.41742646392819</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B60" s="0">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="C60" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D60" s="0">
-        <v>105.86005375096001</v>
+        <v>120.9316859411548</v>
       </c>
     </row>
     <row r="61">
@@ -927,13 +927,13 @@
         <v>870</v>
       </c>
       <c r="B61" s="0">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="C61" s="0">
-        <v>39</v>
+        <v>17.64906482429879</v>
       </c>
       <c r="D61" s="0">
-        <v>106.1197940107002</v>
+        <v>124.4985129738731</v>
       </c>
     </row>
     <row r="62">
@@ -941,55 +941,83 @@
         <v>870</v>
       </c>
       <c r="B62" s="0">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C62" s="0">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D62" s="0">
-        <v>106.3729585676622</v>
+        <v>126.4193244095557</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B63" s="0">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="C63" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="0">
-        <v>108.5519471482835</v>
+        <v>129.22634195341541</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="B64" s="0">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="C64" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D64" s="0">
-        <v>110.07404252547531</v>
+        <v>130.0959071708067</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="B65" s="0">
+        <v>460</v>
+      </c>
+      <c r="C65" s="0">
+        <v>38</v>
+      </c>
+      <c r="D65" s="0">
+        <v>130.63644771134719</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>870</v>
+      </c>
+      <c r="B66" s="0">
+        <v>480</v>
+      </c>
+      <c r="C66" s="0">
+        <v>40</v>
+      </c>
+      <c r="D66" s="0">
+        <v>131.14926822416771</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>880</v>
+      </c>
+      <c r="B67" s="0">
         <v>520</v>
       </c>
-      <c r="C65" s="0">
-        <v>35</v>
-      </c>
-      <c r="D65" s="0">
-        <v>111.286720650657</v>
+      <c r="C67" s="0">
+        <v>25</v>
+      </c>
+      <c r="D67" s="0">
+        <v>132.4179161089732</v>
       </c>
     </row>
   </sheetData>
